--- a/data/trans_dic/P1410-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1410-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04014784011068445</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02867758315016674</v>
+        <v>0.02867758315016673</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03481058898751447</v>
@@ -697,7 +697,7 @@
         <v>0.03453016765872323</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04145571315743709</v>
+        <v>0.04145571315743708</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03061294943616594</v>
+        <v>0.030826701321679</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01335134932141047</v>
+        <v>0.01399835670025408</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01500335274655719</v>
+        <v>0.01436752248228702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03787501463964189</v>
+        <v>0.03836747925813368</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003494021344925042</v>
+        <v>0.00369084294501222</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02168986648872294</v>
+        <v>0.02177151146392963</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01800928878469975</v>
+        <v>0.01889063459025072</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02397560273674628</v>
+        <v>0.02170634850971789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008115841131728446</v>
+        <v>0.009108382027543443</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02205360640892156</v>
+        <v>0.02149351654177406</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03143184317269378</v>
+        <v>0.0316178995071671</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07110392356740586</v>
+        <v>0.07167647668970663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04540032615991195</v>
+        <v>0.04354906856016534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05318491904816652</v>
+        <v>0.05031879624082345</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0734001427388489</v>
+        <v>0.07171994698655722</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03504853169493204</v>
+        <v>0.03877233134962253</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01713619463589551</v>
+        <v>0.01755508097236963</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06417837079588659</v>
+        <v>0.06661378936175355</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04487765260947319</v>
+        <v>0.04434007743088134</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05004215808204878</v>
+        <v>0.0494036334410098</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02689508209648387</v>
+        <v>0.02712773121395671</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04871569071591238</v>
+        <v>0.0513026300488692</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05401298880629941</v>
+        <v>0.05301517198370668</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01929087866923744</v>
+        <v>0.01800028918284147</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01304165920678028</v>
+        <v>0.01269767833646137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01961211476740836</v>
+        <v>0.01960373554093179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0277917985453224</v>
+        <v>0.02826988329785509</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00578632669848303</v>
+        <v>0.005301912221544829</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002915496783664568</v>
+        <v>0.002903980810884073</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005488414738802007</v>
+        <v>0.005856064039799381</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005984625942946667</v>
+        <v>0.005668394088065756</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01548998986444197</v>
+        <v>0.0152616062252628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01107059672358963</v>
+        <v>0.01061207757699671</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01584334804683972</v>
+        <v>0.01568260233003978</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01950467533344515</v>
+        <v>0.02000520501145943</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05855581351411948</v>
+        <v>0.05889186372076756</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05215886019284847</v>
+        <v>0.05336094304717396</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05975108733339567</v>
+        <v>0.05752333307820741</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0574813979684186</v>
+        <v>0.05880754049667612</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03626557239688473</v>
+        <v>0.03490524436089235</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03384390477572582</v>
+        <v>0.03302209502176851</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03335836921363688</v>
+        <v>0.03584486560267934</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02378219796524894</v>
+        <v>0.02265762560433011</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03887676758838123</v>
+        <v>0.03827785936145831</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03605073999746156</v>
+        <v>0.03431125402194787</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04081299660834286</v>
+        <v>0.04079234609713897</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03849073739477384</v>
+        <v>0.03905493527146101</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03090497269437058</v>
+        <v>0.03068618696959901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03374139592885269</v>
+        <v>0.03419578841815853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02802191432386768</v>
+        <v>0.02843583904484909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04430929894131126</v>
+        <v>0.0456292480838009</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005593037704737541</v>
+        <v>0.005663196081044363</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01667710950272228</v>
+        <v>0.0195992308280131</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03543362928639097</v>
+        <v>0.03495738761830688</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03632501815605776</v>
+        <v>0.03497756448110329</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02710590923350101</v>
+        <v>0.02750841167229661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03164410210194283</v>
+        <v>0.03350081410656474</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03588191157661921</v>
+        <v>0.03613743610643588</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04698230160346688</v>
+        <v>0.04755323249129703</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06482065569744809</v>
+        <v>0.06706988164719584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06830795507642344</v>
+        <v>0.06758911069805087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06316617421662797</v>
+        <v>0.06482860409061052</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08600942521067975</v>
+        <v>0.08448830793749901</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04891508409770888</v>
+        <v>0.05267700505961995</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06704681279355529</v>
+        <v>0.07017718183851371</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1281247750990898</v>
+        <v>0.1233660165804769</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1192788710177426</v>
+        <v>0.119229016214768</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05720828154912428</v>
+        <v>0.05579888269904562</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06063926177864203</v>
+        <v>0.06060783890255622</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07250666719469695</v>
+        <v>0.07001715386968291</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08752569281716371</v>
+        <v>0.08424905946241101</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04505460396363753</v>
+        <v>0.04486096724627868</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03358573126207935</v>
+        <v>0.03294828512219193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03306937798986318</v>
+        <v>0.0325586068968326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04951863052154038</v>
+        <v>0.04872511386035368</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02257419042440377</v>
+        <v>0.02331971126969094</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01317627345846204</v>
+        <v>0.01244229568609005</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01829570783306704</v>
+        <v>0.01697701231539816</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01773116199555001</v>
+        <v>0.01771256166933019</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03932614116047566</v>
+        <v>0.04053794675508048</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02779056238316538</v>
+        <v>0.02723986613143076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0286509756131091</v>
+        <v>0.02901342006589295</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0375688757107377</v>
+        <v>0.03737539012072473</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07055695380944507</v>
+        <v>0.06987827298881759</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05779461385074522</v>
+        <v>0.05871124268880682</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05792092629678918</v>
+        <v>0.05665901034008396</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07477994786383212</v>
+        <v>0.07448419420107577</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05147478855243166</v>
+        <v>0.05062939083296526</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03379627361212428</v>
+        <v>0.03320496645166467</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04284227309837306</v>
+        <v>0.04277857814178304</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03387891908891094</v>
+        <v>0.03426089998267503</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05980388969098716</v>
+        <v>0.05963623984158112</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04544830104104673</v>
+        <v>0.04447386360884892</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04551324174136023</v>
+        <v>0.0465498856118015</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05412876881907368</v>
+        <v>0.05409462797643529</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04361257218000106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06110716344681641</v>
+        <v>0.0611071634468164</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0496078358414116</v>
@@ -1241,7 +1241,7 @@
         <v>0.04290109679972114</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06229898766342251</v>
+        <v>0.0622989876634225</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03190660135351004</v>
+        <v>0.03116025455726424</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02930039826289862</v>
+        <v>0.02832400077054306</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02951739450369569</v>
+        <v>0.02973861929007235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04510340410310328</v>
+        <v>0.04421201044575686</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03389595509299924</v>
+        <v>0.03279399127431405</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05059463043516785</v>
+        <v>0.05027322508926867</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02752670834757794</v>
+        <v>0.02849212626985332</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05155697024863801</v>
+        <v>0.05284751208152305</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03696666525433238</v>
+        <v>0.03829010927214279</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04673782532175146</v>
+        <v>0.04614218171685495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03220649378775404</v>
+        <v>0.03387782722781464</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05231989900255653</v>
+        <v>0.05282647023286369</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08056368948464754</v>
+        <v>0.07659241408165093</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06781648085128165</v>
+        <v>0.06825105526123265</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0602120749212267</v>
+        <v>0.06083365898951328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08084200705783379</v>
+        <v>0.0814360812778204</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.070757369800763</v>
+        <v>0.07047621685804067</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08755807473366138</v>
+        <v>0.08838272281350069</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05946316504388124</v>
+        <v>0.06143292988212951</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07695655571593824</v>
+        <v>0.07665378802722851</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06674368943327876</v>
+        <v>0.06760578411521972</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07434984892745758</v>
+        <v>0.07177283651382585</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05431305129465317</v>
+        <v>0.05593847560261948</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07416452683351514</v>
+        <v>0.07378850846880906</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.06731733731591695</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06852093014858834</v>
+        <v>0.06852093014858833</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0393445839438463</v>
@@ -1377,7 +1377,7 @@
         <v>0.05406689395062093</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05776081826281467</v>
+        <v>0.05776081826281468</v>
       </c>
     </row>
     <row r="20">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003650063888494184</v>
+        <v>0.003560300662180448</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.002209919601518747</v>
+        <v>0.002278109247678607</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03757782553703293</v>
+        <v>0.03663427446424034</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04623431345469902</v>
+        <v>0.04655333761581789</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05137806792089969</v>
+        <v>0.05258798796681728</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05692252346375755</v>
+        <v>0.05535599183082296</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03018203300701023</v>
+        <v>0.03015340999598487</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03984788347846497</v>
+        <v>0.04000628886440476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04109360707902619</v>
+        <v>0.04225942397548525</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04665952487533234</v>
+        <v>0.04613085382487309</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04819135185911208</v>
+        <v>0.04850067126971916</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0207842863254328</v>
+        <v>0.02081432958559724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.082681311892509</v>
+        <v>0.0816929479311084</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06107367832245066</v>
+        <v>0.06081537353490506</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07445479077964666</v>
+        <v>0.07609541456748087</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08694695041469462</v>
+        <v>0.0856234813978527</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08293666981948372</v>
+        <v>0.08332602941453915</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05014589034171135</v>
+        <v>0.05149311934095414</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0633549431840378</v>
+        <v>0.06539661254177115</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06854309827442834</v>
+        <v>0.0683214405656118</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07230666760930363</v>
+        <v>0.07202794651069573</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.04517154089538593</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04470908365364156</v>
+        <v>0.04470908365364158</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.04164388907943226</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0395365625073391</v>
+        <v>0.03942998914563681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03194803222125772</v>
+        <v>0.03202156038015107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0306138739638763</v>
+        <v>0.03191377356858838</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04750963946469933</v>
+        <v>0.04722954416439627</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03111230836053244</v>
+        <v>0.03147635709045758</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03555223839117581</v>
+        <v>0.0353225459975343</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03770021311502819</v>
+        <v>0.03808637758382342</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0398540685792737</v>
+        <v>0.03927723773081628</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03635809394371486</v>
+        <v>0.03710528669525691</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0351439307716114</v>
+        <v>0.03535037435804961</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03670584800324937</v>
+        <v>0.03711158283602022</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04498061350621464</v>
+        <v>0.04531043403095918</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05360654371572803</v>
+        <v>0.05354975749976043</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0456248472284692</v>
+        <v>0.04604000764159699</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04426439385707481</v>
+        <v>0.04471484401943942</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06198567493233895</v>
+        <v>0.06195138222546561</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04480376078171878</v>
+        <v>0.04484906769447064</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0489400829935856</v>
+        <v>0.04900916741998824</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05277705974834437</v>
+        <v>0.05325033576184862</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05043805604707351</v>
+        <v>0.05088313873094153</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04645760467408289</v>
+        <v>0.04640357871749126</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0451938776745678</v>
+        <v>0.04466361743360599</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04653099973223181</v>
+        <v>0.04705812935328826</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05371231299445105</v>
+        <v>0.05436561477531749</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14504</v>
+        <v>14605</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5837</v>
+        <v>6120</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6438</v>
+        <v>6165</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20855</v>
+        <v>21126</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1072</v>
+        <v>1132</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7528</v>
+        <v>7556</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8796</v>
+        <v>9226</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18712</v>
+        <v>16941</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6100</v>
+        <v>6846</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17117</v>
+        <v>16682</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>32659</v>
+        <v>32852</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33687</v>
+        <v>33959</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19850</v>
+        <v>19040</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22821</v>
+        <v>21591</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>40415</v>
+        <v>39490</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10749</v>
+        <v>11891</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5389</v>
+        <v>5520</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22273</v>
+        <v>23119</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21919</v>
+        <v>21656</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39056</v>
+        <v>38557</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>20216</v>
+        <v>20391</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37811</v>
+        <v>39818</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>56121</v>
+        <v>55084</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7078</v>
+        <v>6605</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5462</v>
+        <v>5318</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7398</v>
+        <v>7395</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13429</v>
+        <v>13660</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2152</v>
+        <v>1972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2043</v>
+        <v>2180</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2528</v>
+        <v>2395</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11444</v>
+        <v>11275</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8378</v>
+        <v>8031</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11875</v>
+        <v>11754</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>17665</v>
+        <v>18119</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21486</v>
+        <v>21609</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21844</v>
+        <v>22347</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22540</v>
+        <v>21699</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27776</v>
+        <v>28417</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13486</v>
+        <v>12980</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11440</v>
+        <v>11162</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12418</v>
+        <v>13344</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10048</v>
+        <v>9573</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28722</v>
+        <v>28280</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27283</v>
+        <v>25967</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30589</v>
+        <v>30574</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34861</v>
+        <v>35372</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16763</v>
+        <v>16644</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21237</v>
+        <v>21523</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14625</v>
+        <v>14841</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20858</v>
+        <v>21480</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4338</v>
+        <v>5098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5886</v>
+        <v>5807</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6811</v>
+        <v>6558</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19250</v>
+        <v>19536</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>28149</v>
+        <v>29800</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24688</v>
+        <v>24864</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>30926</v>
+        <v>31301</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35158</v>
+        <v>36378</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42994</v>
+        <v>42542</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32967</v>
+        <v>33835</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40488</v>
+        <v>39772</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8207</v>
+        <v>8838</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17441</v>
+        <v>18255</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21284</v>
+        <v>20494</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22364</v>
+        <v>22355</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40628</v>
+        <v>39627</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>53941</v>
+        <v>53913</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>49887</v>
+        <v>48174</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>57613</v>
+        <v>55456</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55793</v>
+        <v>55553</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38926</v>
+        <v>38187</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38018</v>
+        <v>37431</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>55979</v>
+        <v>55082</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16124</v>
+        <v>16657</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10076</v>
+        <v>9515</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15110</v>
+        <v>14021</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15258</v>
+        <v>15242</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>76789</v>
+        <v>79155</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>53462</v>
+        <v>52402</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>56600</v>
+        <v>57316</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>74800</v>
+        <v>74415</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87373</v>
+        <v>86533</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>66984</v>
+        <v>68047</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>66588</v>
+        <v>65137</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84536</v>
+        <v>84202</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36768</v>
+        <v>36164</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25845</v>
+        <v>25393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>35382</v>
+        <v>35330</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29154</v>
+        <v>29483</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>116774</v>
+        <v>116447</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>87430</v>
+        <v>85556</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>89912</v>
+        <v>91960</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>107771</v>
+        <v>107703</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11185</v>
+        <v>10923</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14961</v>
+        <v>14462</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18322</v>
+        <v>18459</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25573</v>
+        <v>25067</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19278</v>
+        <v>18652</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>38464</v>
+        <v>38220</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20321</v>
+        <v>21034</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>42732</v>
+        <v>43802</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33984</v>
+        <v>35200</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>59396</v>
+        <v>58639</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>43767</v>
+        <v>46038</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>73029</v>
+        <v>73736</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28242</v>
+        <v>26850</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>34627</v>
+        <v>34849</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>37374</v>
+        <v>37760</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>45835</v>
+        <v>46172</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>40243</v>
+        <v>40083</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>66566</v>
+        <v>67193</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>43898</v>
+        <v>45352</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>63784</v>
+        <v>63533</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>61358</v>
+        <v>62150</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>94487</v>
+        <v>91212</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>73809</v>
+        <v>76018</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>103519</v>
+        <v>102995</v>
       </c>
     </row>
     <row r="24">
@@ -2777,37 +2777,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>46926</v>
+        <v>45747</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>51235</v>
+        <v>51589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>55592</v>
+        <v>56902</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>47997</v>
+        <v>46676</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>46690</v>
+        <v>46646</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>54793</v>
+        <v>55011</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>56264</v>
+        <v>57860</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>50412</v>
+        <v>49841</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12861</v>
+        <v>12944</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5968</v>
+        <v>5977</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19614</v>
+        <v>19380</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>76266</v>
+        <v>75944</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>82508</v>
+        <v>84327</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>94079</v>
+        <v>92647</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>69932</v>
+        <v>70260</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>77574</v>
+        <v>79658</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>87116</v>
+        <v>89924</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>93847</v>
+        <v>93544</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>78122</v>
+        <v>77821</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>129292</v>
+        <v>128944</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>109323</v>
+        <v>109575</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>103650</v>
+        <v>108051</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>163397</v>
+        <v>162434</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>105101</v>
+        <v>106331</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>126059</v>
+        <v>125244</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>133142</v>
+        <v>134506</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>144709</v>
+        <v>142614</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>241720</v>
+        <v>246688</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>244870</v>
+        <v>246309</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>253906</v>
+        <v>256713</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>318022</v>
+        <v>320354</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>175304</v>
+        <v>175118</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>156124</v>
+        <v>157545</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>149867</v>
+        <v>151392</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>213184</v>
+        <v>213066</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>151353</v>
+        <v>151506</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>173528</v>
+        <v>173773</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>186387</v>
+        <v>188059</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>183139</v>
+        <v>184755</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>308865</v>
+        <v>308506</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>314895</v>
+        <v>311200</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>321870</v>
+        <v>325516</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>379757</v>
+        <v>384376</v>
       </c>
     </row>
     <row r="32">
